--- a/images/table_02.xlsx
+++ b/images/table_02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoxin\Desktop\bookdown\test\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoxin\Desktop\Project\UCSC\bookdown\develop\UCSCXenaShiny_Book\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DE12E1-CC4E-4F7D-804B-8B966B8382FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45F8361-0099-4CDE-85BF-70E114F1AC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -506,7 +506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
